--- a/Manual_DartAPI.xlsx
+++ b/Manual_DartAPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="1610" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1215,8 +1215,8 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
